--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-355114.2501571574</v>
+        <v>-357686.0206774459</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>132.5359373584032</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>48.90246328190704</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>58.14757459799791</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>74.0845273185561</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,10 +877,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>27.41644277113721</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>16.41188450973587</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.30660220273212</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>85.25908494762066</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1108,10 +1108,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>344.9076181407295</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>246.8116866466424</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1309,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>259.8332213627555</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0506985616704344</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>201.9389347702759</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>131.7584887394948</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>79.11532312206182</v>
+        <v>45.97180554613971</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>102.7673426709131</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>215.2549371307801</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881274</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>44.75138076689264</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>192.5871593887784</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>46.29306638367412</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2719,10 +2719,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>146.7151441592114</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>218.227129859624</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>13.03790159951636</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>11.56087338713413</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1296.296386131215</v>
+        <v>1324.80586733131</v>
       </c>
       <c r="C2" t="n">
-        <v>927.3338691908036</v>
+        <v>1324.80586733131</v>
       </c>
       <c r="D2" t="n">
-        <v>927.3338691908036</v>
+        <v>966.5401687245592</v>
       </c>
       <c r="E2" t="n">
-        <v>927.3338691908036</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="F2" t="n">
-        <v>516.3479644011961</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>100.643214125485</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X2" t="n">
-        <v>1296.296386131215</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y2" t="n">
-        <v>1296.296386131215</v>
+        <v>1711.405707395431</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
         <v>1248.170551105042</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1182.764866227933</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="C4" t="n">
-        <v>1124.029942391571</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D4" t="n">
-        <v>1124.029942391571</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>1124.029942391571</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2459.755921915737</v>
+        <v>1561.613264197168</v>
       </c>
       <c r="T4" t="n">
-        <v>2236.777441110473</v>
+        <v>1338.634783391903</v>
       </c>
       <c r="U4" t="n">
-        <v>1947.659103614311</v>
+        <v>1049.516445895741</v>
       </c>
       <c r="V4" t="n">
-        <v>1692.974615408424</v>
+        <v>794.831957689854</v>
       </c>
       <c r="W4" t="n">
-        <v>1403.557445371463</v>
+        <v>794.831957689854</v>
       </c>
       <c r="X4" t="n">
-        <v>1403.557445371463</v>
+        <v>566.8424067918367</v>
       </c>
       <c r="Y4" t="n">
-        <v>1182.764866227933</v>
+        <v>346.0498276483066</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1674.035030689734</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="C5" t="n">
-        <v>1305.072513749323</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="D5" t="n">
-        <v>946.8068151425723</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="E5" t="n">
-        <v>561.018562544328</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362831</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816097</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926626</v>
+        <v>1958.735757675685</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665546</v>
+        <v>1958.735757675685</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>1568.596425699873</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>114.543262603435</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>299.264883884485</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159568</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751768</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>452.2434865835144</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>452.2434865835144</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>452.2434865835144</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>452.2434865835144</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>305.353539085604</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>137.3670743938826</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.255484944676</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W7" t="n">
-        <v>1114.255484944676</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X7" t="n">
-        <v>1114.255484944676</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="Y7" t="n">
-        <v>1114.255484944676</v>
+        <v>452.2434865835144</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1938.906022842682</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1569.94350590227</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1211.67780729552</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>825.8895546972753</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>414.9036499076678</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2285.729975937151</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906803</v>
+        <v>2285.729975937151</v>
       </c>
       <c r="Y8" t="n">
-        <v>2325.505862906803</v>
+        <v>2285.729975937151</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6477645191717</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1443.0701333017</v>
       </c>
       <c r="X10" t="n">
-        <v>845.4403436627018</v>
+        <v>1215.080582403683</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6477645191717</v>
+        <v>994.2880032601528</v>
       </c>
     </row>
     <row r="11">
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.644273983533</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5230,19 +5230,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1840.528062267928</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1585.843574062041</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W13" t="n">
-        <v>1296.426404025081</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X13" t="n">
-        <v>1068.436853127063</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>847.644273983533</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5276,28 +5276,28 @@
         <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836311989</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7557007032921</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D16" t="n">
-        <v>482.6390612909563</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="E16" t="n">
-        <v>482.6390612909563</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="F16" t="n">
-        <v>482.6390612909563</v>
+        <v>449.1607607092168</v>
       </c>
       <c r="G16" t="n">
-        <v>315.4429620058363</v>
+        <v>281.9646614240967</v>
       </c>
       <c r="H16" t="n">
-        <v>173.7311308480343</v>
+        <v>140.2528302662948</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.3403484614387</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2046.67901981013</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5777,10 +5777,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311365</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>447.928008406947</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>280.731909121827</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>139.020077964025</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2185.384895601574</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1896.309668945771</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613763</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="26">
@@ -6209,52 +6209,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>721.7774158311364</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>552.8412329032295</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1896.309668945771</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1641.625180739884</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1352.208010702924</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X28" t="n">
-        <v>1124.218459804906</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>903.4258806613761</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>189.0729639753273</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6783,16 +6783,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
         <v>402.7245934908939</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7020,22 +7020,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,31 +7190,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>564.5188827892237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>414.4022433768879</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7494,22 +7494,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7552,28 +7552,28 @@
         <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,31 +7804,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L3" t="n">
-        <v>30.3692565058945</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9556134883066889</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>292.7380028568905</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>249.3944327138586</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>322.3904425740772</v>
       </c>
       <c r="H2" t="n">
-        <v>252.1160892804983</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986318</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>84.24553961896819</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>120.3791545843332</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2.150513196503709</v>
+        <v>35.29403077242584</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>45.84813034729925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.1505131965082</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>36.51445555167289</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>24.8182909385099</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>205.8445769401539</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>139.4693302300328</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>68.29586847696697</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>152.4862366927525</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>134.873089259435</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-2.009503802257291e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26314,19 +26314,19 @@
         <v>251542.9259350417</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524991</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="F2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="H2" t="n">
         <v>282501.3098915021</v>
@@ -26335,25 +26335,25 @@
         <v>282501.3098915023</v>
       </c>
       <c r="J2" t="n">
+        <v>282501.3098915023</v>
+      </c>
+      <c r="K2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="K2" t="n">
-        <v>282501.3098915023</v>
-      </c>
       <c r="L2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551188</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77105.44197452901</v>
+        <v>77105.44197452908</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
@@ -26424,37 +26424,37 @@
         <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
+        <v>8727.256391744337</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="G4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="H4" t="n">
-        <v>8727.256391744326</v>
+        <v>8727.256391744337</v>
       </c>
       <c r="I4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744344</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
+        <v>8727.256391744304</v>
+      </c>
+      <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
       <c r="N4" t="n">
-        <v>8727.256391744266</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483777</v>
       </c>
       <c r="P4" t="n">
         <v>16718.11565483775</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984472</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1033252.072055252</v>
+        <v>-1033507.941294662</v>
       </c>
       <c r="C6" t="n">
-        <v>58904.71003567144</v>
+        <v>58904.71003567138</v>
       </c>
       <c r="D6" t="n">
-        <v>-101110.7527123275</v>
+        <v>-101110.7527123277</v>
       </c>
       <c r="E6" t="n">
-        <v>-152760.9381315042</v>
+        <v>-152795.6760569401</v>
       </c>
       <c r="F6" t="n">
-        <v>172651.5236758507</v>
+        <v>172616.7857504151</v>
       </c>
       <c r="G6" t="n">
-        <v>172651.5236758508</v>
+        <v>172616.785750415</v>
       </c>
       <c r="H6" t="n">
-        <v>172651.5236758507</v>
+        <v>172616.7857504147</v>
       </c>
       <c r="I6" t="n">
-        <v>172651.5236758508</v>
+        <v>172616.7857504151</v>
       </c>
       <c r="J6" t="n">
-        <v>5046.345865868192</v>
+        <v>5011.607940432732</v>
       </c>
       <c r="K6" t="n">
-        <v>172651.5236758508</v>
+        <v>172616.785750415</v>
       </c>
       <c r="L6" t="n">
-        <v>124357.55366766</v>
+        <v>124322.8157422244</v>
       </c>
       <c r="M6" t="n">
-        <v>87596.49574033897</v>
+        <v>87561.75781490331</v>
       </c>
       <c r="N6" t="n">
-        <v>172651.5236758509</v>
+        <v>172616.7857504151</v>
       </c>
       <c r="O6" t="n">
-        <v>148054.6699501144</v>
+        <v>148054.6699501143</v>
       </c>
       <c r="P6" t="n">
-        <v>167482.3879437462</v>
+        <v>167482.3879437461</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.99583880659003</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>89.15726019887683</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>109.0992465006299</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>120.5779330431814</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>379.4596029705742</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>332.8290842076772</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.5253779792052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>61.99242420750821</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>66.01410751272391</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>102.4292820707706</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>26.68977697383554</v>
       </c>
       <c r="X10" t="n">
-        <v>225.6589568273667</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-2.053100445934254e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,16 +31847,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,7 +33029,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33202,7 +33202,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,7 +33503,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,7 +33515,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34214,34 +34214,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L3" t="n">
-        <v>328.0496171437447</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.93583437922414</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,16 +35495,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010407</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,7 +36677,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,7 +37163,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
